--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>647.53363</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2318.64371</v>
-      </c>
-      <c r="D2" t="n">
-        <v>140.5065</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.40277</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.64995</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2070.72984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547.38783</v>
-      </c>
-      <c r="I2" t="n">
-        <v>697.4347</v>
-      </c>
-      <c r="J2" t="n">
-        <v>218.66986</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32714.81</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163.89193</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18.81615</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37.3125</v>
-      </c>
-      <c r="O2" t="n">
-        <v>960.46037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706.7123800000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>139.51604</v>
-      </c>
-      <c r="R2" t="n">
-        <v>78.42941999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>71.19849000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>128.71449</v>
-      </c>
-      <c r="U2" t="n">
-        <v>167.21723</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1051.60065</v>
-      </c>
-      <c r="W2" t="n">
-        <v>315.15828</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1251.25234</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6589.45781</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1526.78501</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>657.17668</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>15.2072</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1387.69614</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2413.6508</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>681.91514</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>854.12544</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>360.16174</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>166.75994</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1001.02047</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>192.72611</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>228.95902</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>293.10975</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>646.1562</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3603.81393</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>148.14212</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>607.37591</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2612.80051</v>
-      </c>
-      <c r="D3" t="n">
-        <v>150.35127</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.24876</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.66691</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2218.22185</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.5939</v>
-      </c>
-      <c r="I3" t="n">
-        <v>801.20691</v>
-      </c>
-      <c r="J3" t="n">
-        <v>234.8271</v>
-      </c>
-      <c r="K3" t="n">
-        <v>35741.27</v>
-      </c>
-      <c r="L3" t="n">
-        <v>196.10949</v>
-      </c>
-      <c r="M3" t="n">
-        <v>16.4349</v>
-      </c>
-      <c r="N3" t="n">
-        <v>37.51075</v>
-      </c>
-      <c r="O3" t="n">
-        <v>928.98103</v>
-      </c>
-      <c r="P3" t="n">
-        <v>801.88105</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>136.03427</v>
-      </c>
-      <c r="R3" t="n">
-        <v>61.16901</v>
-      </c>
-      <c r="S3" t="n">
-        <v>87.33152</v>
-      </c>
-      <c r="T3" t="n">
-        <v>133.19145</v>
-      </c>
-      <c r="U3" t="n">
-        <v>171.10504</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1198.85626</v>
-      </c>
-      <c r="W3" t="n">
-        <v>327.02921</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1441.25127</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7268.11881</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1687.28852</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>687.74929</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.33116</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1553.71867</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2575.03607</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>677.72202</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>897.51109</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>418.1095</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>186.33844</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>963.96737</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>264.56507</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>244.91877</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>338.35696</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>724.69893</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4335.23167</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>150.58582</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>599.68424</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2746.01331</v>
-      </c>
-      <c r="D4" t="n">
-        <v>157.85042</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.31033</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18.33972</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2413.48645</v>
-      </c>
-      <c r="H4" t="n">
-        <v>362.25208</v>
-      </c>
-      <c r="I4" t="n">
-        <v>854.63352</v>
-      </c>
-      <c r="J4" t="n">
-        <v>246.33297</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36139.17</v>
-      </c>
-      <c r="L4" t="n">
-        <v>189.00382</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16.28147</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29.30103</v>
-      </c>
-      <c r="O4" t="n">
-        <v>953.20578</v>
-      </c>
-      <c r="P4" t="n">
-        <v>789.45874</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>125.74135</v>
-      </c>
-      <c r="R4" t="n">
-        <v>65.24467</v>
-      </c>
-      <c r="S4" t="n">
-        <v>78.71586000000001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>131.69677</v>
-      </c>
-      <c r="U4" t="n">
-        <v>168.49715</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1355.02443</v>
-      </c>
-      <c r="W4" t="n">
-        <v>345.93589</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1901.72627</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7443.60052</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1658.48996</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>637.25864</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.07456</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1447.23098</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2715.05535</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>603.97267</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>990.38076</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>417.07754</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>177.03764</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>942.46216</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>234.99101</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>261.35325</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>319.109</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>754.49816</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3597.0446</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>163.83055</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
